--- a/docs/historias_de_usuario.xlsx
+++ b/docs/historias_de_usuario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SHAIR\home\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SHAIR\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221ED4E7-9D30-4265-9804-AAB02570509D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4ED290-29EC-46E0-921C-E66EE07F2CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="180">
   <si>
     <t xml:space="preserve">CTGI </t>
   </si>
@@ -293,15 +293,6 @@
     <t>Eliminar anuncio</t>
   </si>
   <si>
-    <t>AD-06</t>
-  </si>
-  <si>
-    <t>AP-00</t>
-  </si>
-  <si>
-    <t>Aprendiz</t>
-  </si>
-  <si>
     <t>Crear recomendación</t>
   </si>
   <si>
@@ -338,9 +329,6 @@
     <t>Acceso a la página de administración de anuncios</t>
   </si>
   <si>
-    <t>Archivar noticia</t>
-  </si>
-  <si>
     <t>Acceder a la página de creación de noticias</t>
   </si>
   <si>
@@ -362,12 +350,6 @@
     <t>Confirmar eliminación de noticia</t>
   </si>
   <si>
-    <t>Seleccionar archivar noticia</t>
-  </si>
-  <si>
-    <t>Confirmar archivación de noticia</t>
-  </si>
-  <si>
     <t>Acceder a la página de creación de anuncion</t>
   </si>
   <si>
@@ -509,15 +491,6 @@
     <t>Actualización de datos de información del anuncio</t>
   </si>
   <si>
-    <t>Seleccionar la opción de archivar noticia</t>
-  </si>
-  <si>
-    <t>Solicitud de confirmación de archivación</t>
-  </si>
-  <si>
-    <t>Confirmar la archivación de la noticia</t>
-  </si>
-  <si>
     <t>Seleccionar la opción de eliminar noticia</t>
   </si>
   <si>
@@ -564,6 +537,45 @@
   </si>
   <si>
     <t>Confirmar recomendación</t>
+  </si>
+  <si>
+    <t>VI-00</t>
+  </si>
+  <si>
+    <t>Visitante</t>
+  </si>
+  <si>
+    <t>SAD-03</t>
+  </si>
+  <si>
+    <t>SAD-04</t>
+  </si>
+  <si>
+    <t>Visualizar noticias de administradores</t>
+  </si>
+  <si>
+    <t>Seleccionar las noticias del administrador</t>
+  </si>
+  <si>
+    <t>Seleccionar las noticias del administrador deseado</t>
+  </si>
+  <si>
+    <t>Visualizar las noticias creadas por el administrador</t>
+  </si>
+  <si>
+    <t>Visualización de las noticias del administrador</t>
+  </si>
+  <si>
+    <t>SAD-05</t>
+  </si>
+  <si>
+    <t>Modificar noticias de administradores</t>
+  </si>
+  <si>
+    <t>Eliminar noticias de administradores</t>
+  </si>
+  <si>
+    <t>Administrar el contenido de los administradores</t>
   </si>
 </sst>
 </file>
@@ -573,7 +585,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,40 +601,50 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -632,12 +654,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -665,14 +681,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFE26B0A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor rgb="FFE26B0A"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -795,82 +817,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,16 +1138,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAC535E-53D9-4935-8923-4102A868BA5B}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="61.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1126,129 +1157,129 @@
     <col min="11" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="22" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="18" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8">
+      <c r="E3" s="2"/>
+      <c r="F3" s="5">
         <v>45403</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="9">
         <v>1</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -1262,14 +1293,14 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="9">
         <v>2</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -1283,14 +1314,14 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="10">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13">
         <v>3</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -1304,14 +1335,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="10">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="13">
         <v>4</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -1325,33 +1356,33 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="9">
         <v>1</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -1365,14 +1396,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="4">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="9">
         <v>2</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -1386,14 +1417,14 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="10">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13">
         <v>3</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="14" t="s">
         <v>48</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -1407,14 +1438,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="10">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13">
         <v>4</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="14" t="s">
         <v>49</v>
       </c>
       <c r="G16" s="11" t="s">
@@ -1428,14 +1459,14 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="10">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="13">
         <v>5</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="11" t="s">
@@ -1449,33 +1480,33 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="9">
         <v>1</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="11" t="s">
@@ -1489,14 +1520,14 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="4">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="9">
         <v>2</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G20" s="11" t="s">
@@ -1510,14 +1541,14 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="10">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13">
         <v>3</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="11" t="s">
@@ -1529,17 +1560,17 @@
       <c r="I21" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="5"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="10">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="13">
         <v>4</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="14" t="s">
         <v>46</v>
       </c>
       <c r="G22" s="11" t="s">
@@ -1553,1065 +1584,1370 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="A24" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="9">
         <v>1</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>31</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="4">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="9">
         <v>2</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>92</v>
+      <c r="F25" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="10">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="9">
         <v>3</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="9">
+        <v>4</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="9">
+        <v>2</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="9">
+        <v>3</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="9">
+        <v>4</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="9">
+        <v>5</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="10">
-        <v>4</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="10">
-        <v>5</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="4">
-        <v>2</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="10">
-        <v>3</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="G33" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="I33" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="10">
-        <v>4</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="11" t="s">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="9">
+        <v>6</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I34" s="11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="10">
-        <v>5</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="10">
-        <v>6</v>
-      </c>
-      <c r="F35" s="13" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="9">
+        <v>7</v>
+      </c>
+      <c r="F35" s="14" t="s">
         <v>61</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>61</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="12" t="s">
+      <c r="A37" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" s="9">
+        <v>8</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>31</v>
       </c>
       <c r="I37" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="9">
+        <v>9</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="9">
+        <v>10</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="9">
+        <v>11</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="9">
+        <v>12</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="9">
+        <v>13</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="9">
+        <v>2</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="4">
-        <v>2</v>
-      </c>
-      <c r="F38" s="12" t="s">
+      <c r="I45" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="10">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="13">
         <v>3</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="10">
+      <c r="F46" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="13">
         <v>4</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="10">
-        <v>5</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="4">
-        <v>2</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="10">
-        <v>3</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="10">
-        <v>4</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="1">
-        <v>5</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>107</v>
+      <c r="F47" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="16"/>
+      <c r="E48" s="13">
+        <v>5</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="17" t="s">
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="25"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="C50" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="9">
         <v>1</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F50" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G50" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="9">
+        <v>2</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H51" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="13">
+        <v>3</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="13">
+        <v>4</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13">
+        <v>5</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="13">
+        <v>6</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="25"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="9">
+        <v>1</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I57" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="9">
+        <v>2</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="4">
-        <v>2</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="10">
+      <c r="I58" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="13">
         <v>3</v>
       </c>
-      <c r="F51" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="10">
+      <c r="F59" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="13">
         <v>4</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="10">
-        <v>5</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="16"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="4">
-        <v>2</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="10">
-        <v>3</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="10">
-        <v>4</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="10">
-        <v>5</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H59" s="11" t="s">
+      <c r="F60" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="I60" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="10">
-        <v>6</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="16"/>
+      <c r="E61" s="1">
+        <v>5</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B62" s="17" t="s">
+      <c r="A62" s="23"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="25"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="17" t="s">
+      <c r="C63" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E63" s="9">
         <v>1</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F63" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H62" s="11" t="s">
+      <c r="G63" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H63" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I62" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="4">
+      <c r="I63" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="9">
         <v>2</v>
       </c>
-      <c r="F63" s="12" t="s">
+      <c r="F64" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I64" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="10">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="13">
         <v>3</v>
       </c>
-      <c r="F64" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="10">
+      <c r="F65" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="13">
         <v>4</v>
       </c>
-      <c r="F65" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="1">
-        <v>5</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>115</v>
+      <c r="F66" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="16"/>
+      <c r="E67" s="13">
+        <v>5</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="23"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="25"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="9">
+        <v>1</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="9">
+        <v>2</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="13">
+        <v>3</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="13">
+        <v>4</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="13">
+        <v>5</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="13">
+        <v>6</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="25"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76" s="9">
+        <v>1</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="9">
+        <v>2</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="13">
+        <v>3</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="13">
+        <v>4</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="1">
+        <v>5</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="23"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="25"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E68" s="4">
+      <c r="E82" s="9">
         <v>1</v>
       </c>
-      <c r="F68" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H68" s="11" t="s">
+      <c r="F82" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="9">
+        <v>2</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="13">
+        <v>3</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="13">
+        <v>4</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H85" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="I68" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="4">
-        <v>2</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="10">
-        <v>3</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="10">
-        <v>4</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="16"/>
+      <c r="I85" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="23"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="D55:D60"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
+  <mergeCells count="68">
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A75:I75"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="D69:D74"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="D76:D80"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="C50:C55"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="A23:I23"/>
@@ -2620,22 +2956,17 @@
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A72:I72"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A61:I61"/>
-    <mergeCell ref="A67:I67"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="D50:D55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
